--- a/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_NEED TO ORDER FROM DIGIKEY.xlsx
+++ b/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_NEED TO ORDER FROM DIGIKEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Files\BQ25895_BMS\BQ25895_BMS\Hardware\Project Outputs for BQ25895_BMS_Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7431035-400A-46C0-AD74-BE18AFDDA390}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AA435-7ADD-40D6-8669-821F1E44AAAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{F7EEA39B-86C8-4295-B993-96B5F436FE9B}"/>
   </bookViews>
@@ -57,27 +57,18 @@
     <t>±5% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C7, C12, C15, C17</t>
-  </si>
-  <si>
     <t>4.7uF(10V)</t>
   </si>
   <si>
     <t>4.7 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C13</t>
-  </si>
-  <si>
     <t>LED_BLUE</t>
   </si>
   <si>
     <t>Blue 465~475nm 0603 Light Emitting Diodes (LED) ROHS</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>0603_LED</t>
   </si>
   <si>
@@ -90,18 +81,12 @@
     <t>Diode Schottky 20 V 1A (DC) Surface Mount 2-DSN (1.4x0.6)</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>PEC02SAAN</t>
   </si>
   <si>
     <t>Connector Header Through Hole 2 position 0.100" (2.54mm)</t>
   </si>
   <si>
-    <t>J1, J2, J4, J6, J7, J8</t>
-  </si>
-  <si>
     <t>P2.541X2HDR</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle; Through Hole</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
     <t>Micro USB</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>Connector Header Through Hole 4 position 0.100" (2.54mm)</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>P2.541X4HDR</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>USB-A (USB TYPE-A) USB 2.0 Receptacle Connector 4 Position Through Hole, Right Angle</t>
   </si>
   <si>
-    <t>J9, J10</t>
-  </si>
-  <si>
     <t>CUI_UJ2-AH-4-TH</t>
   </si>
   <si>
@@ -153,9 +129,6 @@
     <t>FIXED IND 1UH 6A 16 MOHM SMD</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>VLS6045EX-1R0N</t>
   </si>
   <si>
@@ -165,9 +138,6 @@
     <t>10 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R8, R11</t>
-  </si>
-  <si>
     <t>RESISTOR0603</t>
   </si>
   <si>
@@ -180,18 +150,12 @@
     <t>0 Ohms ±5% 0.063W, 1/16W Chip Resistor 0603 (1608 Metric)  Thick Film</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>SWITCH</t>
   </si>
   <si>
     <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>PushButton nf</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>Charger IC Lithium Ion/Polymer 24-WQFN (4x4)</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>24-WQFN</t>
   </si>
   <si>
@@ -226,6 +187,45 @@
   </si>
   <si>
     <t>ERJPA3J511V</t>
+  </si>
+  <si>
+    <t>BQ-C7, C12, C15, C17</t>
+  </si>
+  <si>
+    <t>BQ-C13</t>
+  </si>
+  <si>
+    <t>BQ-D1</t>
+  </si>
+  <si>
+    <t>BQ-D2</t>
+  </si>
+  <si>
+    <t>BQ -J1, J2, J4, J6, J7, J8</t>
+  </si>
+  <si>
+    <t>BQ-J3</t>
+  </si>
+  <si>
+    <t>BQ-J5</t>
+  </si>
+  <si>
+    <t>BQ-J9, J10</t>
+  </si>
+  <si>
+    <t>BQ-L1</t>
+  </si>
+  <si>
+    <t>BQ-R1, R2, R3, R4, R8, R11</t>
+  </si>
+  <si>
+    <t>BQ-R7</t>
+  </si>
+  <si>
+    <t>BQ-SW1</t>
+  </si>
+  <si>
+    <t>BQ-U1</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CE6B7-E5C7-48D3-85C7-EE65E31EB397}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -674,21 +674,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -697,263 +697,263 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_NEED TO ORDER FROM DIGIKEY.xlsx
+++ b/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_NEED TO ORDER FROM DIGIKEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Files\BQ25895_BMS\BQ25895_BMS\Hardware\Project Outputs for BQ25895_BMS_Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AA435-7ADD-40D6-8669-821F1E44AAAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7DB06C-C28F-4E3E-B5EE-71DB2561AFA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{F7EEA39B-86C8-4295-B993-96B5F436FE9B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BQ25895_BMS_Module_BOM_generate" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">BQ25895_BMS_Module_BOM_generate!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BQ25895_BMS_Module_BOM_generate!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,40 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ManufacturerPartNumber</t>
-  </si>
-  <si>
-    <t>Capacitor_0603</t>
-  </si>
-  <si>
-    <t>0.1uF(25V)</t>
-  </si>
-  <si>
-    <t>±5% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>4.7uF(10V)</t>
-  </si>
-  <si>
-    <t>4.7 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>LED_BLUE</t>
   </si>
@@ -132,24 +99,6 @@
     <t>VLS6045EX-1R0N</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>10 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>RESISTOR0603</t>
-  </si>
-  <si>
-    <t>RMCF0603JT10K0</t>
-  </si>
-  <si>
-    <t>0R(0603 in )</t>
-  </si>
-  <si>
-    <t>0 Ohms ±5% 0.063W, 1/16W Chip Resistor 0603 (1608 Metric)  Thick Film</t>
-  </si>
-  <si>
     <t>SWITCH</t>
   </si>
   <si>
@@ -171,30 +120,12 @@
     <t>24-WQFN</t>
   </si>
   <si>
-    <t>0603B103J500NT</t>
-  </si>
-  <si>
-    <t>in cart</t>
-  </si>
-  <si>
-    <t>GRM188Z71C475KE21D</t>
-  </si>
-  <si>
     <t xml:space="preserve">in hand </t>
   </si>
   <si>
     <t>not</t>
   </si>
   <si>
-    <t>ERJPA3J511V</t>
-  </si>
-  <si>
-    <t>BQ-C7, C12, C15, C17</t>
-  </si>
-  <si>
-    <t>BQ-C13</t>
-  </si>
-  <si>
     <t>BQ-D1</t>
   </si>
   <si>
@@ -214,12 +145,6 @@
   </si>
   <si>
     <t>BQ-L1</t>
-  </si>
-  <si>
-    <t>BQ-R1, R2, R3, R4, R8, R11</t>
-  </si>
-  <si>
-    <t>BQ-R7</t>
   </si>
   <si>
     <t>BQ-SW1</t>
@@ -232,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,27 +165,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -287,18 +198,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -308,10 +212,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,345 +526,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CE6B7-E5C7-48D3-85C7-EE65E31EB397}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0603B103J500NT_C124567.html" xr:uid="{2CDA4DE2-D49A-43C8-94DE-E33AC074D71B}"/>
-    <hyperlink ref="F11" r:id="rId2" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_SEI-Stackpole-Elec-RMCF0603JT10K0_C238881.html" xr:uid="{5EC085AE-D278-4A18-AEA4-968CAB7BB9AE}"/>
-    <hyperlink ref="F12" r:id="rId3" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3J511V_C445818.html" xr:uid="{C428F94D-107C-4ED0-8CD3-3EBD7102DC74}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>